--- a/xls/Enemy/TABLE_Enemy2.xlsx
+++ b/xls/Enemy/TABLE_Enemy2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,15 +253,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i</t>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i</t>
+    <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,14 +684,14 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -804,7 +816,7 @@
         <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
         <v>71</v>
@@ -816,7 +828,7 @@
         <v>71</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
         <v>71</v>
@@ -825,34 +837,34 @@
         <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s">
         <v>71</v>
       </c>
       <c r="X2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:29">
